--- a/R/analysis/data/Pt_31_M1.xlsx
+++ b/R/analysis/data/Pt_31_M1.xlsx
@@ -524,7 +524,7 @@
         <v>1.41</v>
       </c>
       <c r="N2" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.6</v>
+        <v>5.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.53</v>
@@ -635,16 +635,16 @@
         <v>1.42</v>
       </c>
       <c r="K4" t="n">
-        <v>6.43</v>
+        <v>1.48</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.05</v>
+        <v>4.55</v>
       </c>
       <c r="M4" t="n">
-        <v>4.48</v>
+        <v>1.65</v>
       </c>
       <c r="N4" t="n">
-        <v>1.17</v>
+        <v>3.16</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>2.44</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.43</v>
+        <v>4.43</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
@@ -807,16 +807,16 @@
         <v>1.71</v>
       </c>
       <c r="K7" t="n">
-        <v>5.05</v>
+        <v>1.22</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.86</v>
+        <v>3.57</v>
       </c>
       <c r="M7" t="n">
-        <v>4.95</v>
+        <v>2.12</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>1.14</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.4</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
@@ -983,16 +983,16 @@
         <v>1.25</v>
       </c>
       <c r="K10" t="n">
-        <v>4.32</v>
+        <v>0.49</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.34</v>
+        <v>3.05</v>
       </c>
       <c r="M10" t="n">
-        <v>3.77</v>
+        <v>0.47</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.33</v>
+        <v>2.66</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>0.35</v>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>1.14</v>
@@ -1163,16 +1163,16 @@
         <v>4.44</v>
       </c>
       <c r="K13" t="n">
-        <v>6.13</v>
+        <v>0.94</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.66</v>
+        <v>4.34</v>
       </c>
       <c r="M13" t="n">
-        <v>3.25</v>
+        <v>0.42</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="O13" t="n">
         <v>0.08</v>
@@ -1282,7 +1282,7 @@
         <v>1.53</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="M15" t="n">
         <v>0.45</v>
@@ -1337,10 +1337,10 @@
         <v>1.21</v>
       </c>
       <c r="K16" t="n">
-        <v>4.54</v>
+        <v>0.76</v>
       </c>
       <c r="L16" t="n">
-        <v>0.54</v>
+        <v>3.21</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>1.53</v>
       </c>
       <c r="L18" t="n">
-        <v>-5.67</v>
+        <v>5.67</v>
       </c>
       <c r="M18" t="n">
         <v>1.64</v>
@@ -1511,16 +1511,16 @@
         <v>2.13</v>
       </c>
       <c r="K19" t="n">
-        <v>7.04</v>
+        <v>0.98</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.69</v>
+        <v>4.98</v>
       </c>
       <c r="M19" t="n">
-        <v>3.39</v>
+        <v>0.57</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="O19" t="n">
         <v>0.08</v>
@@ -1580,7 +1580,7 @@
         <v>1.89</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.25</v>
+        <v>2.25</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>2.68</v>
       </c>
       <c r="L21" t="n">
-        <v>-3.2</v>
+        <v>3.2</v>
       </c>
       <c r="M21" t="n">
         <v>0.58</v>
@@ -1691,16 +1691,16 @@
         <v>2.59</v>
       </c>
       <c r="K22" t="n">
-        <v>5.44</v>
+        <v>0.92</v>
       </c>
       <c r="L22" t="n">
-        <v>0.65</v>
+        <v>3.85</v>
       </c>
       <c r="M22" t="n">
-        <v>3.95</v>
+        <v>0.76</v>
       </c>
       <c r="N22" t="n">
-        <v>0.54</v>
+        <v>2.79</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>1.41</v>
       </c>
       <c r="N23" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>2.71</v>
       </c>
       <c r="L24" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>0.5</v>
@@ -1871,16 +1871,16 @@
         <v>1.32</v>
       </c>
       <c r="K25" t="n">
-        <v>4.95</v>
+        <v>0.71</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="M25" t="n">
-        <v>3.36</v>
+        <v>0.53</v>
       </c>
       <c r="N25" t="n">
-        <v>0.38</v>
+        <v>2.38</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>1.34</v>
       </c>
       <c r="L27" t="n">
-        <v>-2.4</v>
+        <v>2.4</v>
       </c>
       <c r="M27" t="n">
         <v>0.58</v>
@@ -2047,16 +2047,16 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>4.22</v>
+        <v>0.83</v>
       </c>
       <c r="L28" t="n">
-        <v>0.58</v>
+        <v>2.98</v>
       </c>
       <c r="M28" t="n">
-        <v>3.3</v>
+        <v>0.47</v>
       </c>
       <c r="N28" t="n">
-        <v>0.33</v>
+        <v>2.34</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
